--- a/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,05</t>
+          <t>1,17; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,55</t>
+          <t>0,61; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,16</t>
+          <t>7,34; 14,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,6</t>
+          <t>3,08; 6,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,67</t>
+          <t>4,53; 9,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,45</t>
+          <t>2,12; 4,45</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,44</t>
+          <t>1,48; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,36</t>
+          <t>2,56; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,21</t>
+          <t>6,07; 11,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 13,07</t>
+          <t>8,51; 12,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,37</t>
+          <t>4,32; 7,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,28</t>
+          <t>6,12; 9,25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,83</t>
+          <t>3,72; 8,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,46</t>
+          <t>3,33; 8,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,8</t>
+          <t>4,62; 8,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,06</t>
+          <t>2,0; 4,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,9</t>
+          <t>4,7; 8,03</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,94</t>
+          <t>0,52; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,05</t>
+          <t>3,0; 8,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,07</t>
+          <t>2,76; 7,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,12</t>
+          <t>6,4; 11,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,52</t>
+          <t>1,87; 4,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,11</t>
+          <t>5,63; 9,34</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,22</t>
+          <t>2,7; 8,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,12</t>
+          <t>0,31; 2,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,48</t>
+          <t>4,91; 12,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,96</t>
+          <t>2,28; 5,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,21</t>
+          <t>4,4; 9,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,13</t>
+          <t>1,9; 4,17</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,83</t>
+          <t>0,3; 2,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,4</t>
+          <t>3,63; 8,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,73</t>
+          <t>6,44; 14,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,99</t>
+          <t>4,91; 10,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,97</t>
+          <t>3,76; 7,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,09</t>
+          <t>4,77; 8,19</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,36</t>
+          <t>0,44; 2,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,48</t>
+          <t>3,36; 7,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,13</t>
+          <t>2,67; 6,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,78</t>
+          <t>5,76; 11,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,86</t>
+          <t>1,84; 3,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,83</t>
+          <t>5,36; 8,87</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,42</t>
+          <t>1,31; 3,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,76</t>
+          <t>1,59; 3,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,36</t>
+          <t>4,85; 8,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,7</t>
+          <t>5,59; 8,91</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,52</t>
+          <t>3,39; 5,51</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,75</t>
+          <t>3,73; 5,79</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,66</t>
+          <t>3,24; 4,69</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,89; 7,66</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,59</t>
+          <t>6,83; 8,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,93; 4,89</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,51</t>
+          <t>5,4; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,36</t>
+          <t>1,16; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,96</t>
+          <t>7,34; 15,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,15</t>
+          <t>4,66; 8,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,32</t>
+          <t>1,5; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,36</t>
+          <t>6,04; 11,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,32</t>
+          <t>4,34; 7,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,17</t>
+          <t>3,15; 8,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,94</t>
+          <t>1,93; 4,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,94</t>
+          <t>0,54; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,09</t>
+          <t>2,86; 6,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,5</t>
+          <t>1,92; 4,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,79</t>
+          <t>2,63; 8,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,45</t>
+          <t>5,34; 12,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,13</t>
+          <t>4,59; 9,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,65</t>
+          <t>0,3; 2,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,44; 14,1</t>
+          <t>6,7; 13,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,92</t>
+          <t>3,8; 7,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,44</t>
+          <t>0,45; 2,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,04</t>
+          <t>2,76; 6,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,9</t>
+          <t>1,86; 3,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,36</t>
+          <t>1,36; 3,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,58</t>
+          <t>4,79; 8,33</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,51</t>
+          <t>3,4; 5,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,5</t>
+          <t>1,49; 2,46</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,66</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,89</t>
+          <t>3,85; 4,91</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">

--- a/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,22</t>
+          <t>1,03; 5,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,65</t>
+          <t>0,61; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,13</t>
+          <t>7,51; 15,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,59</t>
+          <t>3,05; 6,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,94</t>
+          <t>4,68; 9,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,45</t>
+          <t>2,17; 4,45</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,54</t>
+          <t>1,48; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,67</t>
+          <t>2,57; 6,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,04</t>
+          <t>6,07; 11,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,96</t>
+          <t>8,66; 13,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,58</t>
+          <t>4,3; 7,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,25</t>
+          <t>6,17; 9,28</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,9</t>
+          <t>3,59; 8,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,05</t>
+          <t>3,2; 8,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,69</t>
+          <t>4,79; 8,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,77</t>
+          <t>2,12; 5,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,03</t>
+          <t>4,76; 7,9</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,05</t>
+          <t>0,5; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,45</t>
+          <t>2,98; 9,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,94</t>
+          <t>2,74; 7,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,13</t>
+          <t>6,35; 11,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,43</t>
+          <t>2,07; 4,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,34</t>
+          <t>5,65; 9,11</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,32</t>
+          <t>2,35; 8,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,93</t>
+          <t>0,31; 3,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,59</t>
+          <t>5,27; 12,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,96</t>
+          <t>2,33; 5,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,26</t>
+          <t>4,63; 9,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,17</t>
+          <t>1,8; 4,13</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,79</t>
+          <t>0,3; 2,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,27</t>
+          <t>3,52; 8,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,97</t>
+          <t>6,39; 13,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,16</t>
+          <t>4,82; 9,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,82</t>
+          <t>3,6; 7,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,19</t>
+          <t>4,79; 8,09</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,43</t>
+          <t>0,45; 2,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,17</t>
+          <t>3,33; 7,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,07</t>
+          <t>2,81; 6,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,86</t>
+          <t>5,43; 11,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,8</t>
+          <t>1,89; 3,86</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,87</t>
+          <t>5,46; 8,83</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,48</t>
+          <t>1,35; 3,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,88</t>
+          <t>1,53; 3,76</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,33</t>
+          <t>4,78; 8,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,91</t>
+          <t>5,59; 8,7</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,42</t>
+          <t>3,37; 5,52</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,79</t>
+          <t>3,78; 5,75</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,46</t>
+          <t>1,53; 2,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,69</t>
+          <t>3,19; 4,66</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,87; 7,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,67</t>
+          <t>6,87; 8,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,91</t>
+          <t>3,92; 4,97</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,55</t>
+          <t>5,38; 6,51</t>
         </is>
       </c>
     </row>
